--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_1_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_1_sawtooth_0_.xlsx
@@ -603,51 +603,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.11275779311968392, 15.236223721303215]</t>
+          <t>[0.07140016525138648, 15.052065762932145]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.05331659536673472</v>
+        <v>0.04794514678315087</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05331659536673472</v>
+        <v>0.04794514678315087</v>
       </c>
       <c r="P2" t="n">
         <v>-1.471737098979002</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.9183162988301583, -0.025157899127845607]</t>
+          <t>[-2.8680005005744658, -0.07547369738353815]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.04630655815450258</v>
+        <v>0.03929058785902484</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04630655815450258</v>
+        <v>0.03929058785902484</v>
       </c>
       <c r="T2" t="n">
         <v>10.4152397095072</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.068048012391037, 14.762431406623373]</t>
+          <t>[6.065980989041525, 14.764498429972885]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.64085757827781e-05</v>
+        <v>1.653330283701848e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>1.64085757827781e-05</v>
+        <v>1.653330283701848e-05</v>
       </c>
       <c r="X2" t="n">
         <v>5.153153153153152</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.08808808808808521</v>
+        <v>0.2642642642642627</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.21821821821822</v>
+        <v>10.04204204204204</v>
       </c>
     </row>
     <row r="3">
@@ -693,51 +693,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.595181457976917, 14.875218363846315]</t>
+          <t>[-0.5555803764303278, 14.835617282299726]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.06955519300640844</v>
+        <v>0.06818287571839243</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06955519300640844</v>
+        <v>0.06818287571839243</v>
       </c>
       <c r="P3" t="n">
         <v>-0.9811580659860013</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-2.9434741979580044, 0.9811580659860017]</t>
+          <t>[-2.9308952483940813, 0.9685791164220787]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.319294513614905</v>
+        <v>0.3162169293762762</v>
       </c>
       <c r="S3" t="n">
-        <v>0.319294513614905</v>
+        <v>0.3162169293762762</v>
       </c>
       <c r="T3" t="n">
         <v>9.453848966648943</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[5.492411299280087, 13.4152866340178]</t>
+          <t>[5.490561805274887, 13.417136128023]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.746494195775661e-05</v>
+        <v>1.759464668071864e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>1.746494195775661e-05</v>
+        <v>1.759464668071864e-05</v>
       </c>
       <c r="X3" t="n">
         <v>3.435435435435434</v>
       </c>
       <c r="Y3" t="n">
-        <v>-3.435435435435437</v>
+        <v>-3.391391391391394</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.3063063063063</v>
+        <v>10.26226226226226</v>
       </c>
     </row>
     <row r="4">
@@ -783,51 +783,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.031643591323613, 12.876917163724263]</t>
+          <t>[-1.963656203563417, 12.808929775964067]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1498283610503064</v>
+        <v>0.1461998308724193</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1498283610503064</v>
+        <v>0.1461998308724193</v>
       </c>
       <c r="P4" t="n">
         <v>-0.3270526886620004</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-2.371131992799503, 1.7170266154755023]</t>
+          <t>[-3.4403427057329665, 2.7862373284089657]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.7487507609289987</v>
+        <v>0.8333880597101497</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7487507609289987</v>
+        <v>0.8333880597101497</v>
       </c>
       <c r="T4" t="n">
         <v>8.389833607017279</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[4.345612403779173, 12.434054810255384]</t>
+          <t>[4.350274134295908, 12.429393079738649]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0.0001333328644019804</v>
+        <v>0.0001313152122215389</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0001333328644019804</v>
+        <v>0.0001313152122215389</v>
       </c>
       <c r="X4" t="n">
         <v>1.145145145145143</v>
       </c>
       <c r="Y4" t="n">
-        <v>-6.012012012012012</v>
+        <v>-9.755755755755757</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.302302302302298</v>
+        <v>12.04604604604604</v>
       </c>
     </row>
     <row r="5">
@@ -869,51 +869,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.08996583512689149, 13.207909281634805]</t>
+          <t>[0.14703303445842408, 12.97091041204949]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.05304761730933194</v>
+        <v>0.04518099207009008</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05304761730933194</v>
+        <v>0.04518099207009008</v>
       </c>
       <c r="P5" t="n">
         <v>-0.06289474781961513</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-1.440289725069193, 1.3145002294299628]</t>
+          <t>[-1.402552876377424, 1.2767633807381937]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.9271315172118797</v>
+        <v>0.9250850436877471</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9271315172118797</v>
+        <v>0.9250850436877471</v>
       </c>
       <c r="T5" t="n">
         <v>8.403228260732723</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[4.563653370828051, 12.242803150637394]</t>
+          <t>[4.564487419696486, 12.241969101768959]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.405968577616328e-05</v>
+        <v>6.386250470247212e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>6.405968577616328e-05</v>
+        <v>6.386250470247212e-05</v>
       </c>
       <c r="X5" t="n">
         <v>0.2336336336336373</v>
       </c>
       <c r="Y5" t="n">
-        <v>-4.882942942942981</v>
+        <v>-4.7427627627628</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.350210210210256</v>
+        <v>5.210030030030075</v>
       </c>
     </row>
     <row r="6">
@@ -955,51 +955,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.0678891129999197, 13.806217702483847]</t>
+          <t>[-1.0709606776319678, 13.809289267115895]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0914089802046878</v>
+        <v>0.09153864217874164</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0914089802046878</v>
+        <v>0.09153864217874164</v>
       </c>
       <c r="P6" t="n">
         <v>-0.1257894956392311</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.666710817219811, 1.4151318259413488]</t>
+          <t>[-1.7296055650394253, 1.478026573760963]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.8701395090152282</v>
+        <v>0.875188055739196</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8701395090152282</v>
+        <v>0.875188055739196</v>
       </c>
       <c r="T6" t="n">
         <v>9.367646658911408</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.146393002024718, 13.588900315798098]</t>
+          <t>[5.144916165928965, 13.59037715189385]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.251724826726978e-05</v>
+        <v>5.278328841051838e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>5.251724826726978e-05</v>
+        <v>5.278328841051838e-05</v>
       </c>
       <c r="X6" t="n">
         <v>0.4672672672672711</v>
       </c>
       <c r="Y6" t="n">
-        <v>-5.256756756756807</v>
+        <v>-5.490390390390439</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.191291291291349</v>
+        <v>6.424924924924981</v>
       </c>
     </row>
     <row r="7">
@@ -1041,51 +1041,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.0726057119238757, 13.907620288126994]</t>
+          <t>[-1.0231935188236676, 13.858208095026786]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.09126705433289395</v>
+        <v>0.08920398022203502</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09126705433289395</v>
+        <v>0.08920398022203502</v>
       </c>
       <c r="P7" t="n">
         <v>0.1320789704211922</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.4340002502872329, 1.6981581911296173]</t>
+          <t>[-1.459158149415079, 1.7233160902574634]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.8658783458162311</v>
+        <v>0.8679785747975655</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8658783458162311</v>
+        <v>0.8679785747975655</v>
       </c>
       <c r="T7" t="n">
         <v>9.409059411046645</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.166658346670624, 13.651460475422667]</t>
+          <t>[5.1716517160686735, 13.646467106024616]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.296374577623553e-05</v>
+        <v>5.207011133645523e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>5.296374577623553e-05</v>
+        <v>5.207011133645523e-05</v>
       </c>
       <c r="X7" t="n">
         <v>22.84936936936958</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.03189189189205</v>
+        <v>16.9384384384386</v>
       </c>
       <c r="Z7" t="n">
-        <v>28.6668468468471</v>
+        <v>28.76030030030056</v>
       </c>
     </row>
     <row r="8">
@@ -1127,51 +1127,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[0.0793882290543646, 12.896189750937825]</t>
+          <t>[0.10086682107480094, 12.874711158917389]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.04734397277890534</v>
+        <v>0.04663585877134357</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04734397277890534</v>
+        <v>0.04663585877134357</v>
       </c>
       <c r="P8" t="n">
         <v>0.08176317216550011</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.2704739059562327, 1.4340002502872329]</t>
+          <t>[-1.2578949563923096, 1.4214213007233099]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.9036130995250908</v>
+        <v>0.9027126860165176</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9036130995250908</v>
+        <v>0.9027126860165176</v>
       </c>
       <c r="T8" t="n">
         <v>8.385066473327468</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[4.531050843466985, 12.23908210318795]</t>
+          <t>[4.532686903243214, 12.237446043411722]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.964770960848909e-05</v>
+        <v>6.923251313750711e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>6.964770960848909e-05</v>
+        <v>6.923251313750711e-05</v>
       </c>
       <c r="X8" t="n">
         <v>23.03627627627648</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.01315315315331</v>
+        <v>18.05987987988004</v>
       </c>
       <c r="Z8" t="n">
-        <v>28.05939939939965</v>
+        <v>28.01267267267292</v>
       </c>
     </row>
     <row r="9">
@@ -1213,51 +1213,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.41746096434456526, 13.48255421011022]</t>
+          <t>[-0.4298086241198238, 13.494901869885478]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.06478289821373906</v>
+        <v>0.06524146373408124</v>
       </c>
       <c r="O9" t="n">
-        <v>0.06478289821373906</v>
+        <v>0.06524146373408124</v>
       </c>
       <c r="P9" t="n">
         <v>0.3207632138800385</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.2453160068283866, 1.8868424345884636]</t>
+          <t>[-1.2830528555201557, 1.9245792832802326]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.6819118904452925</v>
+        <v>0.6889875392040854</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6819118904452925</v>
+        <v>0.6889875392040854</v>
       </c>
       <c r="T9" t="n">
         <v>8.37260344570884</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[4.544286265880074, 12.200920625537606]</t>
+          <t>[4.543467351674554, 12.201739539743127]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.471231162397117e-05</v>
+        <v>6.490877960896313e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>6.471231162397117e-05</v>
+        <v>6.490877960896313e-05</v>
       </c>
       <c r="X9" t="n">
         <v>22.14846846846867</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.33099099099114</v>
+        <v>16.19081081081096</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.9659459459462</v>
+        <v>28.10612612612638</v>
       </c>
     </row>
     <row r="10">
@@ -1299,51 +1299,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.211337893879696, 14.209299377250128]</t>
+          <t>[-1.0466426361875136, 14.044604119557945]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.09647541724918929</v>
+        <v>0.08963421080590517</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09647541724918929</v>
+        <v>0.08963421080590517</v>
       </c>
       <c r="P10" t="n">
         <v>0.2452895164965003</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.446579199851156, 1.9371582328441566]</t>
+          <t>[-1.3962634015954638, 1.8868424345884645]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.7716228782315715</v>
+        <v>0.7648327665665189</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7716228782315715</v>
+        <v>0.7648327665665189</v>
       </c>
       <c r="T10" t="n">
         <v>9.390138586431199</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.1928354771107035, 13.587441695751695]</t>
+          <t>[5.191388062648699, 13.5888891102137]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.669606176799235e-05</v>
+        <v>4.69316930824526e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>4.669606176799235e-05</v>
+        <v>4.69316930824526e-05</v>
       </c>
       <c r="X10" t="n">
         <v>22.42882882882903</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.14408408408423</v>
+        <v>16.33099099099114</v>
       </c>
       <c r="Z10" t="n">
-        <v>28.71357357357383</v>
+        <v>28.52666666666692</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_1_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_1_sawtooth_0_.xlsx
@@ -603,51 +603,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.07140016525138648, 15.052065762932145]</t>
+          <t>[-0.25216100588152557, 15.375626934065057]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.04794514678315087</v>
+        <v>0.05753258978683307</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04794514678315087</v>
+        <v>0.05753258978683307</v>
       </c>
       <c r="P2" t="n">
         <v>-1.471737098979002</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.8680005005744658, -0.07547369738353815]</t>
+          <t>[-2.8428426014466197, -0.1006315965113842]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.03929058785902484</v>
+        <v>0.03597952399708104</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03929058785902484</v>
+        <v>0.03597952399708104</v>
       </c>
       <c r="T2" t="n">
         <v>10.4152397095072</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.065980989041525, 14.764498429972885]</t>
+          <t>[6.062414914731326, 14.768064504283084]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.653330283701848e-05</v>
+        <v>1.675039915483012e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>1.653330283701848e-05</v>
+        <v>1.675039915483012e-05</v>
       </c>
       <c r="X2" t="n">
         <v>5.153153153153152</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2642642642642627</v>
+        <v>0.3523523523523497</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.04204204204204</v>
+        <v>9.953953953953954</v>
       </c>
     </row>
     <row r="3">
@@ -693,51 +693,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.5555803764303278, 14.835617282299726]</t>
+          <t>[-0.5050499042686507, 14.785086810138049]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.06818287571839243</v>
+        <v>0.0664452588381006</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06818287571839243</v>
+        <v>0.0664452588381006</v>
       </c>
       <c r="P3" t="n">
         <v>-0.9811580659860013</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-2.9308952483940813, 0.9685791164220787]</t>
+          <t>[-2.717053105807389, 0.7547369738353864]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.3162169293762762</v>
+        <v>0.2609754465798426</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3162169293762762</v>
+        <v>0.2609754465798426</v>
       </c>
       <c r="T3" t="n">
         <v>9.453848966648943</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[5.490561805274887, 13.417136128023]</t>
+          <t>[5.494670624027957, 13.413027309269928]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.759464668071864e-05</v>
+        <v>1.730760983154056e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>1.759464668071864e-05</v>
+        <v>1.730760983154056e-05</v>
       </c>
       <c r="X3" t="n">
         <v>3.435435435435434</v>
       </c>
       <c r="Y3" t="n">
-        <v>-3.391391391391394</v>
+        <v>-2.642642642642646</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.26226226226226</v>
+        <v>9.513513513513512</v>
       </c>
     </row>
     <row r="4">
@@ -783,51 +783,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.963656203563417, 12.808929775964067]</t>
+          <t>[-2.2171008593232866, 13.062374431723937]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1461998308724193</v>
+        <v>0.159738750924812</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1461998308724193</v>
+        <v>0.159738750924812</v>
       </c>
       <c r="P4" t="n">
         <v>-0.3270526886620004</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.4403427057329665, 2.7862373284089657]</t>
+          <t>[-3.2705268866200043, 2.6164215092960035]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.8333880597101497</v>
+        <v>0.8239341904840221</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8333880597101497</v>
+        <v>0.8239341904840221</v>
       </c>
       <c r="T4" t="n">
         <v>8.389833607017279</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[4.350274134295908, 12.429393079738649]</t>
+          <t>[4.347315227045886, 12.432351986988671]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0.0001313152122215389</v>
+        <v>0.0001325929291446926</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0001313152122215389</v>
+        <v>0.0001325929291446926</v>
       </c>
       <c r="X4" t="n">
         <v>1.145145145145143</v>
       </c>
       <c r="Y4" t="n">
-        <v>-9.755755755755757</v>
+        <v>-9.161161161161161</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.04604604604604</v>
+        <v>11.45145145145145</v>
       </c>
     </row>
     <row r="5">
@@ -869,51 +869,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0.14703303445842408, 12.97091041204949]</t>
+          <t>[-0.022040568861367404, 13.139984015369281]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.04518099207009008</v>
+        <v>0.05073986142400577</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04518099207009008</v>
+        <v>0.05073986142400577</v>
       </c>
       <c r="P5" t="n">
         <v>-0.06289474781961513</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-1.402552876377424, 1.2767633807381937]</t>
+          <t>[-1.3773949772495788, 1.2516054816103486]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.9250850436877471</v>
+        <v>0.9236557528489939</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9250850436877471</v>
+        <v>0.9236557528489939</v>
       </c>
       <c r="T5" t="n">
         <v>8.403228260732723</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[4.564487419696486, 12.241969101768959]</t>
+          <t>[4.563664361756606, 12.24279215970884]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.386250470247212e-05</v>
+        <v>6.405708405488042e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>6.386250470247212e-05</v>
+        <v>6.405708405488042e-05</v>
       </c>
       <c r="X5" t="n">
         <v>0.2336336336336373</v>
       </c>
       <c r="Y5" t="n">
-        <v>-4.7427627627628</v>
+        <v>-4.64930930930935</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.210030030030075</v>
+        <v>5.116576576576625</v>
       </c>
     </row>
     <row r="6">
@@ -955,51 +955,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.0709606776319678, 13.809289267115895]</t>
+          <t>[-0.7727015801907804, 13.511030169674708]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.09153864217874164</v>
+        <v>0.07917936727236996</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09153864217874164</v>
+        <v>0.07917936727236996</v>
       </c>
       <c r="P6" t="n">
         <v>-0.1257894956392311</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.7296055650394253, 1.478026573760963]</t>
+          <t>[-1.7170266154755032, 1.4654476241970409]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.875188055739196</v>
+        <v>0.8742098570565524</v>
       </c>
       <c r="S6" t="n">
-        <v>0.875188055739196</v>
+        <v>0.8742098570565524</v>
       </c>
       <c r="T6" t="n">
         <v>9.367646658911408</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.144916165928965, 13.59037715189385]</t>
+          <t>[5.147116615834513, 13.588176701988303]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.278328841051838e-05</v>
+        <v>5.238730697310068e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>5.278328841051838e-05</v>
+        <v>5.238730697310068e-05</v>
       </c>
       <c r="X6" t="n">
         <v>0.4672672672672711</v>
       </c>
       <c r="Y6" t="n">
-        <v>-5.490390390390439</v>
+        <v>-5.443663663663715</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.424924924924981</v>
+        <v>6.378198198198257</v>
       </c>
     </row>
     <row r="7">
@@ -1041,51 +1041,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.0231935188236676, 13.858208095026786]</t>
+          <t>[-0.4764268752233285, 13.311441451426447]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.08920398022203502</v>
+        <v>0.06730356215300959</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08920398022203502</v>
+        <v>0.06730356215300959</v>
       </c>
       <c r="P7" t="n">
         <v>0.1320789704211922</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.459158149415079, 1.7233160902574634]</t>
+          <t>[-1.471737098979002, 1.7358950398213864]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.8679785747975655</v>
+        <v>0.8690043316960856</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8679785747975655</v>
+        <v>0.8690043316960856</v>
       </c>
       <c r="T7" t="n">
         <v>9.409059411046645</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.1716517160686735, 13.646467106024616]</t>
+          <t>[5.169384510631831, 13.648734311461459]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.207011133645523e-05</v>
+        <v>5.247427629861967e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>5.207011133645523e-05</v>
+        <v>5.247427629861967e-05</v>
       </c>
       <c r="X7" t="n">
         <v>22.84936936936958</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.9384384384386</v>
+        <v>16.89171171171187</v>
       </c>
       <c r="Z7" t="n">
-        <v>28.76030030030056</v>
+        <v>28.80702702702729</v>
       </c>
     </row>
     <row r="8">
@@ -1127,51 +1127,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[0.10086682107480094, 12.874711158917389]</t>
+          <t>[-0.17828344355264214, 13.153861423544832]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.04663585877134357</v>
+        <v>0.05617737061882733</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04663585877134357</v>
+        <v>0.05617737061882733</v>
       </c>
       <c r="P8" t="n">
         <v>0.08176317216550011</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.2578949563923096, 1.4214213007233099]</t>
+          <t>[-1.3459476033397717, 1.509473947670772]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.9027126860165176</v>
+        <v>0.9086847453594529</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9027126860165176</v>
+        <v>0.9086847453594529</v>
       </c>
       <c r="T8" t="n">
         <v>8.385066473327468</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[4.532686903243214, 12.237446043411722]</t>
+          <t>[4.534666705363577, 12.235466241291359]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.923251313750711e-05</v>
+        <v>6.873284903985422e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>6.923251313750711e-05</v>
+        <v>6.873284903985422e-05</v>
       </c>
       <c r="X8" t="n">
         <v>23.03627627627648</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.05987987988004</v>
+        <v>17.73279279279295</v>
       </c>
       <c r="Z8" t="n">
-        <v>28.01267267267292</v>
+        <v>28.33975975976001</v>
       </c>
     </row>
     <row r="9">
@@ -1213,51 +1213,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.4298086241198238, 13.494901869885478]</t>
+          <t>[-0.30402285905730686, 13.369116104822961]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.06524146373408124</v>
+        <v>0.06062416447443475</v>
       </c>
       <c r="O9" t="n">
-        <v>0.06524146373408124</v>
+        <v>0.06062416447443475</v>
       </c>
       <c r="P9" t="n">
         <v>0.3207632138800385</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.2830528555201557, 1.9245792832802326]</t>
+          <t>[-1.2201581077005406, 1.8616845354606175]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.6889875392040854</v>
+        <v>0.6770191447398064</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6889875392040854</v>
+        <v>0.6770191447398064</v>
       </c>
       <c r="T9" t="n">
         <v>8.37260344570884</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[4.543467351674554, 12.201739539743127]</t>
+          <t>[4.540374095052087, 12.204832796365594]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.490877960896313e-05</v>
+        <v>6.565539940184273e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>6.490877960896313e-05</v>
+        <v>6.565539940184273e-05</v>
       </c>
       <c r="X9" t="n">
         <v>22.14846846846867</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.19081081081096</v>
+        <v>16.42444444444459</v>
       </c>
       <c r="Z9" t="n">
-        <v>28.10612612612638</v>
+        <v>27.87249249249274</v>
       </c>
     </row>
     <row r="10">
@@ -1299,51 +1299,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.0466426361875136, 14.044604119557945]</t>
+          <t>[-0.44272949417334573, 13.440690977543778]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.08963421080590517</v>
+        <v>0.06580778240864182</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08963421080590517</v>
+        <v>0.06580778240864182</v>
       </c>
       <c r="P10" t="n">
         <v>0.2452895164965003</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.3962634015954638, 1.8868424345884645]</t>
+          <t>[-1.4340002502872329, 1.9245792832802335]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.7648327665665189</v>
+        <v>0.7699618036705802</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7648327665665189</v>
+        <v>0.7699618036705802</v>
       </c>
       <c r="T10" t="n">
         <v>9.390138586431199</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.191388062648699, 13.5888891102137]</t>
+          <t>[5.191012155736869, 13.589265017125529]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.69316930824526e-05</v>
+        <v>4.699305228950124e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>4.69316930824526e-05</v>
+        <v>4.699305228950124e-05</v>
       </c>
       <c r="X10" t="n">
         <v>22.42882882882903</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.33099099099114</v>
+        <v>16.19081081081096</v>
       </c>
       <c r="Z10" t="n">
-        <v>28.52666666666692</v>
+        <v>28.6668468468471</v>
       </c>
     </row>
   </sheetData>
